--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nppa-Npr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nppa-Npr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,25 +525,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.08275166666666668</v>
+        <v>0.051938</v>
       </c>
       <c r="H2">
-        <v>0.248255</v>
+        <v>0.155814</v>
       </c>
       <c r="I2">
-        <v>0.174708982570271</v>
+        <v>0.1172837182974765</v>
       </c>
       <c r="J2">
-        <v>0.174708982570271</v>
+        <v>0.1172837182974765</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.195417</v>
+        <v>1.536685</v>
       </c>
       <c r="N2">
-        <v>3.586251</v>
+        <v>4.610055</v>
       </c>
       <c r="O2">
-        <v>0.724690891256891</v>
+        <v>0.4822880013826122</v>
       </c>
       <c r="P2">
-        <v>0.724690891256891</v>
+        <v>0.4822880013826122</v>
       </c>
       <c r="Q2">
-        <v>0.09892274911166668</v>
+        <v>0.07981234553000001</v>
       </c>
       <c r="R2">
-        <v>0.8903047420050001</v>
+        <v>0.71831110977</v>
       </c>
       <c r="S2">
-        <v>0.1266100082894344</v>
+        <v>0.05656453009241122</v>
       </c>
       <c r="T2">
-        <v>0.1266100082894344</v>
+        <v>0.05656453009241123</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.08275166666666668</v>
+        <v>0.051938</v>
       </c>
       <c r="H3">
-        <v>0.248255</v>
+        <v>0.155814</v>
       </c>
       <c r="I3">
-        <v>0.174708982570271</v>
+        <v>0.1172837182974765</v>
       </c>
       <c r="J3">
-        <v>0.174708982570271</v>
+        <v>0.1172837182974765</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4541373333333333</v>
+        <v>1.195417</v>
       </c>
       <c r="N3">
-        <v>1.362412</v>
+        <v>3.586251</v>
       </c>
       <c r="O3">
-        <v>0.275309108743109</v>
+        <v>0.3751811696924212</v>
       </c>
       <c r="P3">
-        <v>0.275309108743109</v>
+        <v>0.3751811696924212</v>
       </c>
       <c r="Q3">
-        <v>0.0375806212288889</v>
+        <v>0.06208756814600001</v>
       </c>
       <c r="R3">
-        <v>0.3382255910600001</v>
+        <v>0.558788113314</v>
       </c>
       <c r="S3">
-        <v>0.04809897428083668</v>
+        <v>0.04400264261672363</v>
       </c>
       <c r="T3">
-        <v>0.04809897428083668</v>
+        <v>0.04400264261672363</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.242445</v>
+        <v>0.051938</v>
       </c>
       <c r="H4">
-        <v>0.7273350000000001</v>
+        <v>0.155814</v>
       </c>
       <c r="I4">
-        <v>0.5118606184678982</v>
+        <v>0.1172837182974765</v>
       </c>
       <c r="J4">
-        <v>0.5118606184678982</v>
+        <v>0.1172837182974765</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.195417</v>
+        <v>0.4541373333333333</v>
       </c>
       <c r="N4">
-        <v>3.586251</v>
+        <v>1.362412</v>
       </c>
       <c r="O4">
-        <v>0.724690891256891</v>
+        <v>0.1425308289249667</v>
       </c>
       <c r="P4">
-        <v>0.724690891256891</v>
+        <v>0.1425308289249667</v>
       </c>
       <c r="Q4">
-        <v>0.289822874565</v>
+        <v>0.02358698481866667</v>
       </c>
       <c r="R4">
-        <v>2.608405871085</v>
+        <v>0.212282863368</v>
       </c>
       <c r="S4">
-        <v>0.3709407277968046</v>
+        <v>0.0167165455883416</v>
       </c>
       <c r="T4">
-        <v>0.3709407277968046</v>
+        <v>0.01671654558834161</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,10 +726,10 @@
         <v>0.7273350000000001</v>
       </c>
       <c r="I5">
-        <v>0.5118606184678982</v>
+        <v>0.5474768201053503</v>
       </c>
       <c r="J5">
-        <v>0.5118606184678982</v>
+        <v>0.5474768201053503</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,33 +738,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4541373333333333</v>
+        <v>1.536685</v>
       </c>
       <c r="N5">
-        <v>1.362412</v>
+        <v>4.610055</v>
       </c>
       <c r="O5">
-        <v>0.275309108743109</v>
+        <v>0.4822880013826122</v>
       </c>
       <c r="P5">
-        <v>0.275309108743109</v>
+        <v>0.4822880013826122</v>
       </c>
       <c r="Q5">
-        <v>0.11010332578</v>
+        <v>0.3725615948250001</v>
       </c>
       <c r="R5">
-        <v>0.99092993202</v>
+        <v>3.353054353425</v>
       </c>
       <c r="S5">
-        <v>0.1409198906710936</v>
+        <v>0.2640415013719173</v>
       </c>
       <c r="T5">
-        <v>0.1409198906710936</v>
+        <v>0.2640415013719173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1484576666666667</v>
+        <v>0.242445</v>
       </c>
       <c r="H6">
-        <v>0.445373</v>
+        <v>0.7273350000000001</v>
       </c>
       <c r="I6">
-        <v>0.3134303989618308</v>
+        <v>0.5474768201053503</v>
       </c>
       <c r="J6">
-        <v>0.3134303989618308</v>
+        <v>0.5474768201053503</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>3.586251</v>
       </c>
       <c r="O6">
-        <v>0.724690891256891</v>
+        <v>0.3751811696924212</v>
       </c>
       <c r="P6">
-        <v>0.724690891256891</v>
+        <v>0.3751811696924212</v>
       </c>
       <c r="Q6">
-        <v>0.1774688185136666</v>
+        <v>0.2898228745650001</v>
       </c>
       <c r="R6">
-        <v>1.597219366623</v>
+        <v>2.608405871085</v>
       </c>
       <c r="S6">
-        <v>0.2271401551706521</v>
+        <v>0.2054029937466126</v>
       </c>
       <c r="T6">
-        <v>0.2271401551706521</v>
+        <v>0.2054029937466126</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,22 +838,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1484576666666667</v>
+        <v>0.242445</v>
       </c>
       <c r="H7">
-        <v>0.445373</v>
+        <v>0.7273350000000001</v>
       </c>
       <c r="I7">
-        <v>0.3134303989618308</v>
+        <v>0.5474768201053503</v>
       </c>
       <c r="J7">
-        <v>0.3134303989618308</v>
+        <v>0.5474768201053503</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,208 @@
         <v>1.362412</v>
       </c>
       <c r="O7">
-        <v>0.275309108743109</v>
+        <v>0.1425308289249667</v>
       </c>
       <c r="P7">
-        <v>0.275309108743109</v>
+        <v>0.1425308289249667</v>
       </c>
       <c r="Q7">
-        <v>0.06742016885288889</v>
+        <v>0.11010332578</v>
       </c>
       <c r="R7">
-        <v>0.6067815196759999</v>
+        <v>0.99092993202</v>
       </c>
       <c r="S7">
-        <v>0.08629024379117871</v>
+        <v>0.07803232498682046</v>
       </c>
       <c r="T7">
-        <v>0.08629024379117871</v>
+        <v>0.07803232498682047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1484576666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.445373</v>
+      </c>
+      <c r="I8">
+        <v>0.3352394615971734</v>
+      </c>
+      <c r="J8">
+        <v>0.3352394615971734</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.536685</v>
+      </c>
+      <c r="N8">
+        <v>4.610055</v>
+      </c>
+      <c r="O8">
+        <v>0.4822880013826122</v>
+      </c>
+      <c r="P8">
+        <v>0.4822880013826122</v>
+      </c>
+      <c r="Q8">
+        <v>0.2281326695016667</v>
+      </c>
+      <c r="R8">
+        <v>2.053194025515</v>
+      </c>
+      <c r="S8">
+        <v>0.1616819699182837</v>
+      </c>
+      <c r="T8">
+        <v>0.1616819699182838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1484576666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.445373</v>
+      </c>
+      <c r="I9">
+        <v>0.3352394615971734</v>
+      </c>
+      <c r="J9">
+        <v>0.3352394615971734</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.195417</v>
+      </c>
+      <c r="N9">
+        <v>3.586251</v>
+      </c>
+      <c r="O9">
+        <v>0.3751811696924212</v>
+      </c>
+      <c r="P9">
+        <v>0.3751811696924212</v>
+      </c>
+      <c r="Q9">
+        <v>0.1774688185136667</v>
+      </c>
+      <c r="R9">
+        <v>1.597219366623</v>
+      </c>
+      <c r="S9">
+        <v>0.125775533329085</v>
+      </c>
+      <c r="T9">
+        <v>0.125775533329085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1484576666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.445373</v>
+      </c>
+      <c r="I10">
+        <v>0.3352394615971734</v>
+      </c>
+      <c r="J10">
+        <v>0.3352394615971734</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4541373333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.362412</v>
+      </c>
+      <c r="O10">
+        <v>0.1425308289249667</v>
+      </c>
+      <c r="P10">
+        <v>0.1425308289249667</v>
+      </c>
+      <c r="Q10">
+        <v>0.0674201688528889</v>
+      </c>
+      <c r="R10">
+        <v>0.606781519676</v>
+      </c>
+      <c r="S10">
+        <v>0.04778195834980468</v>
+      </c>
+      <c r="T10">
+        <v>0.04778195834980468</v>
       </c>
     </row>
   </sheetData>
